--- a/uploads/excel_format/Loan Issue.xlsx
+++ b/uploads/excel_format/Loan Issue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Customer Mapping</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>loan_amount</t>
+  </si>
+  <si>
+    <t>loan_amount_per Customer</t>
+  </si>
+  <si>
+    <t>intreset per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal per month </t>
+  </si>
+  <si>
+    <t>due_amount per month</t>
   </si>
 </sst>
 </file>
@@ -409,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,13 +435,15 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -454,23 +468,35 @@
       <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -495,19 +521,31 @@
       <c r="H2" s="2">
         <v>100000</v>
       </c>
-      <c r="I2">
-        <v>2000</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>29500</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7000</v>
+      </c>
+      <c r="M2" s="2">
+        <v>7200</v>
+      </c>
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="L2">
-        <v>820000</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2" s="1">
         <v>45652</v>
       </c>
     </row>

--- a/uploads/excel_format/Loan Issue.xlsx
+++ b/uploads/excel_format/Loan Issue.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="645" windowWidth="28275" windowHeight="12030"/>
@@ -63,12 +63,6 @@
     <t>Centre Name</t>
   </si>
   <si>
-    <t>L-101</t>
-  </si>
-  <si>
-    <t>bandham</t>
-  </si>
-  <si>
     <t>s.no</t>
   </si>
   <si>
@@ -78,23 +72,29 @@
     <t>loan_amount_per Customer</t>
   </si>
   <si>
-    <t>intreset per month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">principal per month </t>
-  </si>
-  <si>
-    <t>due_amount per month</t>
+    <t>L-104</t>
+  </si>
+  <si>
+    <t>vasanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intreset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">due_amount </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,32 +427,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="13" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -466,10 +476,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -496,21 +506,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>765675675675676</v>
+        <v>90253233899025</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -556,24 +566,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
